--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_renzhi_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_renzhi_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>老师带领大家研究一些神奇的东西。那么我们日常生活中会见到很多种材料，对不对？那么对这节课，老师先给大家带来了几种日常生活中见不到的材料。请同学们一起来认真观看，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“请同学们一起来认真观看”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“一起来认真观看”体现出老师要求学生共同进行观看的活动，观看活动属于个体的感知活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -489,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +512,11 @@
           <t>好短暂的一分钟时间，做好准备的，想好的可以举手发言，好，第八组的同学，你来说，</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“做好准备的，想好的可以举手发言”体现出老师发起了一个开展课堂活动的指令，邀请学生发言。“第八组的同学，你来说”明确指定了第八组的一位同学来发言。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -521,7 +529,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +548,11 @@
           <t>加上一个哪里的椅子和桌子，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“加上一个哪里的椅子和桌子”这句话比较模糊，没有明确体现出具体的课堂活动类型，也没有表明是针对全体学生还是个体学生，以及活动的具体开展方式。综合上述整段话的分析过程，无法判断出预设的课堂活动类别。
@@ -572,7 +584,11 @@
           <t>非常好，是用木头做成的，做成的。还有人请坐，还有人知道不同的材料吗？</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“还有人知道不同的材料吗？”体现出老师发起了一个开展课堂活动的指令。“还有人”体现出这个课堂活动是由全体学生参与的。进一步地，“知道不同的材料”体现出老师要求学生用话语来回答自己所知道的不同材料。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -585,7 +601,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +620,11 @@
           <t>描述的，非常准确啊，请坐客厅的灯还有谁有其他材料？</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“描述的，非常准确啊，请坐”体现出老师对学生回答的肯定和让学生坐下。“客厅的灯还有谁有其他材料？”这句话没有明确体现出老师发起了一个开展课堂活动的指令，也没有明确活动的形式和参与主体。综合上述整段话的分析过程，无法识别出任何预设的课堂活动类别。
@@ -612,7 +632,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -631,7 +651,11 @@
           <t>嗯，概括的很全面，请坐，还有谁有不同的婷婷，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“概括的很全面，请坐”体现出老师对前面同学的概括表示肯定并让其坐下。“还有谁有不同的婷婷”体现出老师发起了一个开展课堂活动的指令，邀请一位叫婷婷的同学发言，但没有明确婷婷发言的具体内容和形式。综合上述整段话的分析过程，这个课堂活动是由一名学生参与、且内容和参与形式都不知道，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -658,7 +682,11 @@
           <t>你就把这种东西写上，然后对它的特点进行一个分析。比如说木材是不是透明的，如果是你就画上。对，好，如果不是你就画上给大家五分钟的时间啊，一定要记得轻声讨论。现在开始，</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你就把这种东西写上，然后对它的特点进行一个分析”体现出老师发起了一个开展课堂活动的指令，要求学生进行书写和分析的活动。“给大家五分钟的时间啊，一定要记得轻声讨论”体现出老师给了学生时间并要求学生以小组轻声讨论的方式完成任务。综合上述整段话的分析过程，这个课堂活动是学生以小组形式通过互相讨论来达到自主学习的目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -671,7 +699,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -690,7 +718,11 @@
           <t>那么接下来我们每一组老师让你负责来说一种材料。那么首先我们用第一组来说一下纸这种材料，请第一组派出一个发言的同学，你把你们组的纸举起来，让大家看一下，你找的对不，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么接下来我们每一组老师让你负责来说一种材料。那么首先我们用第一组来说一下纸这种材料，请第一组派出一个发言的同学”体现出老师发起了一个开展课堂活动的指令，邀请第一组派出一名同学开展活动。进一步地，“你把你们组的纸举起来，让大家看一下，你找的对不”体现出该同学被要求用话语来描述并展示找到的材料。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -717,7 +749,11 @@
           <t>嗯，那你照着我们前面的这个说，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那你照着我们前面的这个说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。“照着我们前面的这个说”体现出该学生被要求用话语来描述。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -725,7 +761,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -744,7 +780,11 @@
           <t>首先纸透明吗？纸不透明，嗯，继续，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在与学生进行关于纸是否透明的讨论，没有发起明确的课堂活动指令。
@@ -776,7 +816,11 @@
           <t>你来说第三组啊，你们是第二组。好听就说吧，玻璃把你们组找到的玻璃举起来，先拿先放啊，找的对不对？对对，那你来介绍一下玻璃的这些特点，可以看着你们的那张纸数啊。因为老师前面的字可能没有你们的纸大，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你来说第三组啊”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。“那你来介绍一下玻璃的这些特点，可以看着你们的那张纸数啊”体现出老师要求该学生用话语来介绍玻璃的特点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -784,7 +828,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -803,7 +847,11 @@
           <t>嗯，他说不怎么光滑，继续说，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“继续说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生继续发言。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -811,7 +859,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -830,7 +878,11 @@
           <t>嗯，有什么其他特点？可以当镜子照。因为它有反光的这种特点，对不对？嗯，好，请坐。那有没有人对郝婷婷刚才的回答存在一点质疑呢，第六组你来说，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“第六组你来说”体现出老师发起了一个开展课堂活动的指令，邀请第六组的同学发言。“来说”体现出该同学被要求用话语来表达自己的见解。综合上述整段话的分析过程，这个课堂活动是由一组学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -838,7 +890,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -857,7 +909,11 @@
           <t>对，毛玻璃那个摸起来就不光滑了，是粗糙的。好，下面我请第三组说一下塑料的这种材料，动作快，你来说，把你们组的塑料举起来，他们组的塑料是一根粉色的，服吧。</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，下面我请第三组说一下塑料的这种材料，动作快，你来说，把你们组的塑料举起来”体现出老师发起了一个开展课堂活动的指令。首先，“第三组”表明老师邀请的是一个小组，“你来说”表明老师指定了一位同学发言，综合上述整段话的分析过程，这个课堂活动是由一个小组和一位同学参与、且是一种口述活动，符合“多人展示”和“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“多人展示、个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -870,7 +926,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -889,7 +945,11 @@
           <t>不容易碎，有没有什么其他特点，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师提出了问题，但没有明确指示学生开展具体的课堂活动。
@@ -916,7 +976,11 @@
           <t>你这这个吸管可以吹风，但其他有的材料不能吹风。郝婷婷来说一下，你认为吸管有什么特点？请坐，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“郝婷婷来说一下，你认为吸管有什么特点？”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“郝婷婷”可能是被邀请学生的名字。进一步地，“你认为吸管有什么特点？”体现出该学生被要求用话语来回答吸管的特点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -924,7 +988,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -943,7 +1007,11 @@
           <t>那么接下来我们说第四组第四种布料，请第四组的同学来回答，把你们组找到的布料举起来，让大家看一眼，对吧？那么你来说一下它的特点，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>多人展示或个体发言</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“请第四组的同学来回答，把你们组找到的布料举起来，让大家看一眼”体现出老师发起了一个开展课堂活动的指令，邀请第四组同学开展活动。“那么你来说一下它的特点”体现出老师邀请第四组中的某位同学用话语来描述布料的特点。综合上述整段话的分析过程，这个课堂活动是由第四组的学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -970,7 +1038,11 @@
           <t>可以缝衣服，它是比较硬还是比较软的软的，所以我们能用它来做成衣服，说的很准确。请坐下面我请第五组来说一下木材，嗯，你们走，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“下面我请第五组来说一下木材”体现出老师发起了一个开展课堂活动的指令，邀请第五组学生开展活动。综合上述整段话的分析过程，这个课堂活动是由一个小组执行、且是一种口述活动，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -997,7 +1069,11 @@
           <t>不不易摔碎，不易摔碎很好。</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是对学生的回答进行了肯定，并没有发起开展课堂活动的指令。
@@ -1024,7 +1100,11 @@
           <t>那么下面请第七组来说一下食材啊，第六组第六组来说一下陶瓷，把你们组找到的陶瓷，让大家看一眼找的，对不对？对，一个陶瓷片啊，说一下陶瓷，</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么下面请第七组来说一下食材啊，第六组来说一下陶瓷”体现出老师发起了一个开展课堂活动的指令，分别邀请第七组和第六组来介绍食材和陶瓷。这个课堂活动是由特定的小组执行、向全班同学分享自己的成果的活动，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1056,7 +1136,11 @@
           <t>斑纹斑纹就是花斑，它没有斑纹，有没有光泽呢？他说陶瓷没有光泽，陶瓷容不容易摔碎，他说不容易摔碎，老师觉得应该有不同意见了，有谁觉得有不同意见来说来，</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“有谁觉得有不同意见来说来”体现出老师发起了一个开展课堂活动的指令，邀请有不同意见的学生发言。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1069,7 +1153,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1088,7 +1172,11 @@
           <t>因为这个瓷砖从墙上掉到地上的时候，它就容易碎，所以这才是陶瓷的一个特点啊。请同学们注意。下面我请第七组来说一下食材，第七组，你们是第七组，那你们先说第七组说一些食材啊，组，行，你们说食材也没关系，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>多人展示</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“下面我请第七组来说一下食材”体现出老师发起了一个开展课堂活动的指令，邀请第七组学生开展活动。“说一下食材”体现出该组学生被要求用话语来描述食材。综合上述整段话的分析过程，这个课堂活动是由一个小组执行、且是一种口述活动，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1120,7 +1208,11 @@
           <t>找到食材没食材是哪个？对，轻拿轻放，你说一下它的特点吧，</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你说一下它的特点吧”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“你”可能是被邀请学生的名字。结合“说一下它的特点”可知，该学生被要求用话语来描述特点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1128,7 +1220,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1147,7 +1239,11 @@
           <t>大理石，你拿的那个大理石，上面有花斑斑纹，没有这有的啊，有斑纹，对，没有光泽易碎。嗯，很大的大理石摔下来也是容易碎的。它有什么其他的特点，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“它有什么其他的特点”体现出老师发起了一个开展课堂活动的指令。首先，老师没有明确指出是哪位学生回答，“它有什么其他的特点”体现出老师要求全体学生思考大理石的其他特点。思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1174,7 +1270,11 @@
           <t>铺在地上，因为它很坚硬，请坐下面我请最后一组来做一下金属，就是你们组嗯三号同学来说吧，三号同学，女生这边的女生对，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“下面我请最后一组来做一下金属，就是你们组嗯三号同学来说吧”体现出老师发起了一个开展课堂活动的指令，邀请了最后一组的三号同学开展活动。“来说吧”体现出该同学被要求用话语来回答或描述相关内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1187,7 +1287,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1206,7 +1306,11 @@
           <t>比如说铁叫不叫做金属，叫铁式金属，铜叫不叫做金属，黄金叫不叫金属，白银叫不叫金属。所以金属材料它的划分里面有很多种更详细的金属材料。这个同学们要注意，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在进行知识讲解和强调，没有发起任何明确的需要学生立即执行的课堂活动指令。
@@ -1233,7 +1337,11 @@
           <t>你你说一下你的想法思彤，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你说一下你的想法思彤”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“思彤”可能是被邀请学生的名字。进一步地，“说一下你的想法”体现出该学生被要求用话语来描述自己的想法。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1246,7 +1354,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1265,7 +1373,11 @@
           <t>你们随身携带带到实验室来，以及在班级所用的这个笔袋儿里面的装的东西，它都是不同的材料。那你们想一想笔袋儿以及里面的东西都是什么材料呢？请同学们把活动手册啊翻到我们的第一页，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“那你们想一想笔袋儿以及里面的东西都是什么材料呢”体现出老师发起了一个开展课堂活动的指令，“你们”体现出这个课堂活动是由全体学生共同参与的，“想一想”体现出老师要求学生思考笔袋及里面东西的材料，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。“请同学们把活动手册啊翻到我们的第一页”体现出老师发起了另一个开展课堂活动的指令，“请同学们”体现出这个活动是全体学生参与的，“翻到第一页”体现出这是一个由学生独自完成的动作。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1278,7 +1390,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1297,7 +1409,11 @@
           <t>右面有很多我们见到的材料，请同学们把左面的东西和右面的材料进行连线，看你们找的准不准确，</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“请同学们把左面的东西和右面的材料进行连线”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“把左面的东西和右面的材料进行连线”体现出老师要求学生独自完成连线任务。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1310,7 +1426,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1329,7 +1445,11 @@
           <t>有的同学的笔袋，你是用布做的，可有的同学的笔袋儿都不是啊，你看一眼制的才是那种叫做尼龙的复合材料。</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在陈述关于笔袋材质的一些情况，并没有发起任何课堂活动的指令。
@@ -1356,7 +1476,11 @@
           <t>嗯，橡皮最简单了，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是对橡皮的情况进行了简单描述，并没有发起任何关于课堂活动的指令。
@@ -1388,7 +1512,11 @@
           <t>有人的尺子是塑料尺，有人的尺子是，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语不完整，没有体现出老师发起课堂活动的指令，无法判断学生接下来要开展的课堂活动。
@@ -1420,7 +1548,11 @@
           <t>第二组同学，那么下面我请一位同学来说一下你们组你的笔袋里什么材料，对应什么物品，嗯，我叫一个我没有叫过的同学，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“第二组同学，那么下面我请一位同学来说一下你们组你的笔袋里什么材料，对应什么物品”体现出老师发起了一个开展课堂活动的指令。首先，“第二组同学”明确了参与活动的学生范围。进一步地，“我请一位同学来说一下”体现出老师邀请一位同学用话语来回答笔袋里材料和对应物品的问题。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1428,7 +1560,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1447,7 +1579,11 @@
           <t>你来说第八组对，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你来说第八组”体现出老师发起了一个开展课堂活动的指令，“你”体现出老师邀请一位学生参与活动，“来说”体现出该学生被要求用话语来回答关于第八组的相关内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1460,7 +1596,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1479,7 +1615,11 @@
           <t>玻璃做的用玻璃让大家看一看，</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>多人展示或个体展示</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是让大家看用玻璃做的东西，但没有明确指出后续的课堂活动形式及学生的参与方式。综合上述整段话的分析过程，无法识别出任何预设的课堂活动类别。
@@ -1492,7 +1632,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1511,7 +1651,11 @@
           <t>继续，照着你的活动手册给大家介绍，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“继续，照着你的活动手册给大家介绍”体现出老师发起了一个开展课堂活动的指令，“照着你的活动手册给大家介绍”表明是让一位学生向全班同学分享自己活动手册中的内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1524,7 +1668,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1543,7 +1687,11 @@
           <t>活动，手册里有笔吗？</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语没有体现出老师发起开展课堂活动的指令，而是在询问手册里是否有笔，与课堂活动无关。
@@ -1570,7 +1718,11 @@
           <t>做的？铅笔芯是拿石墨做的，对你照着你的活动手册说活动手册里有橡皮，</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在讲述知识，没有发起明确的课堂活动指令。
@@ -1578,7 +1730,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1597,7 +1749,11 @@
           <t>橡橡皮是橡胶。对，组你来说，女士，</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“组你来说，女士”体现出老师发起了一个开展课堂活动的指令，邀请一位女士开展活动，“说”字体现出该女士被要求用话语来描述自己的见解。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1610,7 +1766,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1629,7 +1785,11 @@
           <t>他说尼龙拉链继续说吧，</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“他说尼龙拉链继续说吧”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，让其继续说下去。这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1637,7 +1797,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1656,7 +1816,11 @@
           <t>接下来啊一分钟的时间观察一下你们自己穿的鞋，你看看你的鞋面，你的鞋带儿，你的鞋底都是由什么材料做成的呢？请同学们一头观察就行，不要把你的鞋子脱下来啊，一头观察就行，</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“接下来啊一分钟的时间观察一下你们自己穿的鞋”体现出老师发起了一个开展课堂活动的指令。首先，“接下来”表明活动即将开始，“你们自己”体现出这个课堂活动是由全体学生共同参与的。进一步地，“观察一下”体现出老师要求学生观察自己的鞋，观察属于个体的活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1669,7 +1833,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1688,7 +1852,11 @@
           <t>我看到大多数同学都已经做好了，做起来了。那么下面我就请同学们来说一下你的鞋子，它有什么用什么材料做成的这种材料有什么特点？我来它的功能是什么啊？</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那么下面我就请同学们来说一下你的鞋子，它有什么用什么材料做成的这种材料有什么特点？我来它的功能是什么啊？”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们来说一下”中的“同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“说一下”体现出老师要求学生用话语来回答关于鞋子的相关问题。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1701,7 +1869,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1720,7 +1888,11 @@
           <t>那么你说一下这些材料有什么特点面有什么功能呢？你想一想，布料的特点是什么？</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，”那么你说一下这些材料有什么特点面有什么功能呢？“体现出老师发起了一个开展课堂活动的指令，邀请一位学生用话语来回答材料的特点和功能。“你想一想，布料的特点是什么”这句话进一步体现了老师在提示学生思考问题的角度，进而回答前面老师提出的问题。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1728,7 +1900,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1747,7 +1919,11 @@
           <t>对，很柔软。我们脚穿着就怎么样了，所以它的柔软的特点决定了它的功能，让我们穿着比较舒适，</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“让我们穿着比较舒适”体现出老师发起了一个开展课堂活动的指令。首先，“让我们”体现出这个课堂活动是由全体学生共同参与的。进一步地，老师通过描述产品特点与功能之间的关系，引导学生思考和理解，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1779,7 +1955,11 @@
           <t>所以我们会选择各种各样不同材料的鞋子。因为不同材料的鞋子，有不同的特点，有不同的功能。好，下面请同学们把你们桌面上的材料装到袋子里都有，</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，下面请同学们把你们桌面上的材料装到袋子里都有”体现出老师发起了一个开展课堂活动的指令。首先，“请同学们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“把你们桌面上的材料装到袋子里”体现出老师要求学生执行装材料的动作。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1792,7 +1972,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1811,7 +1991,11 @@
           <t>你想想我能用纸做鞋的鞋底吗？好，因为止住了指这种材料的特点，怎么样适不适合做鞋垫，对，那下面啊同学们就想一想，可以小组两个人小声讨论一下，你想用什么材料给大家介绍一下。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>独立练习或小组学习</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，第一步，先分析第一个子文本段——“你想想我能用纸做鞋的鞋底吗？好，因为止住了指这种材料的特点，怎么样适不适合做鞋垫”，这部分体现出老师在引导学生思考纸作为鞋底材料的可行性，属于个体思考活动。进一步地，“你想想”体现出老师邀请某个学生进行思考。综合第一个子文本段的分析过程，这个课堂活动是由一个学生执行、且是一种思考活动，符合“个体发言”的特征，因而，老师发出了一个要求学生开展“个体发言”的指令。
